--- a/Team-Data/2011-12/1-17-2011-12.xlsx
+++ b/Team-Data/2011-12/1-17-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>6</v>
@@ -765,31 +832,31 @@
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR2" t="n">
         <v>11</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -798,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
@@ -807,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -816,10 +883,10 @@
         <v>12</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-2.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -947,13 +1014,13 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -983,16 +1050,16 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY3" t="n">
         <v>28</v>
       </c>
-      <c r="AX3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>18</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -1030,142 +1097,142 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="H4" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I4" t="n">
         <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>83.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L4" t="n">
         <v>4.7</v>
       </c>
       <c r="M4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.317</v>
+        <v>0.319</v>
       </c>
       <c r="O4" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="P4" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="S4" t="n">
         <v>31.1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.9</v>
+        <v>42.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="X4" t="n">
         <v>5.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-10.7</v>
+        <v>-10.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
         <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS4" t="n">
         <v>17</v>
       </c>
-      <c r="AR4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>18</v>
-      </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
         <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
         <v>6</v>
@@ -1177,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -1212,70 +1279,70 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.445</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="V5" t="n">
         <v>14.8</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="O5" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="R5" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>22</v>
-      </c>
-      <c r="V5" t="n">
-        <v>14.3</v>
-      </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z5" t="n">
         <v>16.7</v>
@@ -1284,10 +1351,10 @@
         <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1305,25 +1372,25 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM5" t="n">
         <v>21</v>
       </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1335,16 +1402,16 @@
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
         <v>20</v>
@@ -1353,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ5" t="n">
         <v>1</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
         <v>81.90000000000001</v>
@@ -1418,76 +1485,76 @@
         <v>0.434</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M6" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.702</v>
+        <v>0.701</v>
       </c>
       <c r="R6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.8</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
         <v>14</v>
       </c>
-      <c r="AE6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>16</v>
-      </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1499,55 +1566,55 @@
         <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>11</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>14</v>
@@ -1678,7 +1745,7 @@
         <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -1687,13 +1754,13 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>26</v>
@@ -1702,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>18</v>
@@ -1723,13 +1790,13 @@
         <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>21</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -1758,124 +1825,124 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.643</v>
+        <v>0.615</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>37.8</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.483</v>
+        <v>0.487</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.348</v>
+        <v>0.335</v>
       </c>
       <c r="O8" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="P8" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R8" t="n">
         <v>8.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U8" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="V8" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="AB8" t="n">
         <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>13</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>30</v>
@@ -1890,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,19 +1966,19 @@
         <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.214</v>
+        <v>0.231</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="J9" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="K9" t="n">
-        <v>0.423</v>
+        <v>0.425</v>
       </c>
       <c r="L9" t="n">
         <v>4.8</v>
@@ -1970,64 +2037,64 @@
         <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="O9" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="P9" t="n">
-        <v>18.2</v>
+        <v>18.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.804</v>
+        <v>0.801</v>
       </c>
       <c r="R9" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="S9" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="T9" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="U9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V9" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA9" t="n">
         <v>18.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>85</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
@@ -2048,22 +2115,22 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ9" t="n">
         <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>30</v>
@@ -2072,19 +2139,19 @@
         <v>22</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
         <v>27</v>
@@ -2093,7 +2160,7 @@
         <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="J10" t="n">
-        <v>80.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
         <v>18.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.337</v>
+        <v>0.326</v>
       </c>
       <c r="O10" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P10" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R10" t="n">
         <v>10.8</v>
@@ -2170,113 +2237,113 @@
         <v>31.1</v>
       </c>
       <c r="T10" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U10" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>17</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV10" t="n">
         <v>17</v>
       </c>
-      <c r="AU10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>14</v>
-      </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ10" t="n">
         <v>30</v>
       </c>
       <c r="BA10" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC10" t="n">
         <v>23</v>
       </c>
-      <c r="BB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>22</v>
-      </c>
       <c r="BD10" t="n">
         <v>10</v>
       </c>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -2304,106 +2371,106 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I11" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J11" t="n">
-        <v>85.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.334</v>
+        <v>0.328</v>
       </c>
       <c r="O11" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="P11" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="S11" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="T11" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U11" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="W11" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="X11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="AB11" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>9</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
         <v>29</v>
@@ -2421,34 +2488,34 @@
         <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>22</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -2582,22 +2649,22 @@
         <v>25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>5</v>
@@ -2609,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2627,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="AY12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>6</v>
@@ -2639,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -2668,82 +2735,82 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.636</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.46</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
         <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.324</v>
+        <v>0.337</v>
       </c>
       <c r="O13" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="P13" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="S13" t="n">
         <v>28.4</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="R13" t="n">
-        <v>11</v>
-      </c>
-      <c r="S13" t="n">
-        <v>28.7</v>
-      </c>
       <c r="T13" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>5.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Z13" t="n">
         <v>20.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2752,43 +2819,43 @@
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ13" t="n">
         <v>18</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AM13" t="n">
         <v>10</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
         <v>27</v>
@@ -2797,31 +2864,31 @@
         <v>27</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>1</v>
       </c>
       <c r="BB13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -2928,28 +2995,28 @@
         <v>3.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>26</v>
@@ -2964,19 +3031,19 @@
         <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2985,13 +3052,13 @@
         <v>25</v>
       </c>
       <c r="AW14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX14" t="n">
         <v>16</v>
       </c>
       <c r="AY14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>14</v>
@@ -3003,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>-0.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
@@ -3140,10 +3207,10 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3152,13 +3219,13 @@
         <v>27</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>25</v>
@@ -3170,10 +3237,10 @@
         <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
         <v>9</v>
@@ -3182,7 +3249,7 @@
         <v>16</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="I16" t="n">
-        <v>40.3</v>
+        <v>39.8</v>
       </c>
       <c r="J16" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.494</v>
+        <v>0.487</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.397</v>
+        <v>0.363</v>
       </c>
       <c r="O16" t="n">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="P16" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.729</v>
+        <v>0.734</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
-        <v>33.2</v>
+        <v>34</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>44.1</v>
       </c>
       <c r="U16" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V16" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="W16" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>107.2</v>
+        <v>106.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF16" t="n">
         <v>7</v>
       </c>
-      <c r="AF16" t="n">
-        <v>6</v>
-      </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3313,22 +3380,22 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP16" t="n">
         <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>21</v>
@@ -3340,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
@@ -3352,22 +3419,22 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
         <v>27</v>
       </c>
       <c r="BA16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB16" t="n">
         <v>1</v>
       </c>
       <c r="BC16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -3396,109 +3463,109 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.308</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J17" t="n">
-        <v>83.3</v>
+        <v>82.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O17" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="P17" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.765</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S17" t="n">
         <v>27.8</v>
       </c>
       <c r="T17" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>91.8</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.2</v>
+        <v>-3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3513,10 +3580,10 @@
         <v>28</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
@@ -3525,31 +3592,31 @@
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY17" t="n">
         <v>21</v>
       </c>
-      <c r="AY17" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA17" t="n">
         <v>19</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>21</v>
       </c>
       <c r="BB17" t="n">
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
@@ -3677,7 +3744,7 @@
         <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>4</v>
@@ -3686,22 +3753,22 @@
         <v>4</v>
       </c>
       <c r="AN18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>16</v>
       </c>
-      <c r="AO18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP18" t="n">
+      <c r="AR18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS18" t="n">
         <v>9</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>10</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
@@ -3716,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
         <v>25</v>
@@ -3725,10 +3792,10 @@
         <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3868,22 +3935,22 @@
         <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT19" t="n">
         <v>29</v>
@@ -3895,16 +3962,16 @@
         <v>18</v>
       </c>
       <c r="AW19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
       </c>
       <c r="AY19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>23</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>24</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3913,7 +3980,7 @@
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4038,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>21</v>
@@ -4047,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>28</v>
@@ -4059,10 +4126,10 @@
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
         <v>7</v>
@@ -4077,19 +4144,19 @@
         <v>21</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>25</v>
       </c>
       <c r="BA20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
@@ -4235,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" t="n">
         <v>6</v>
@@ -4244,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4265,7 +4332,7 @@
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4274,10 +4341,10 @@
         <v>5</v>
       </c>
       <c r="BB21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,13 +4475,13 @@
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4423,16 +4490,16 @@
         <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4447,10 +4514,10 @@
         <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4459,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.769</v>
+        <v>0.75</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
@@ -4506,22 +4573,22 @@
         <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.466</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="M23" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.411</v>
+        <v>0.418</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P23" t="n">
         <v>25.3</v>
@@ -4533,55 +4600,55 @@
         <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T23" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="n">
         <v>6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>3</v>
       </c>
       <c r="AF23" t="n">
         <v>2</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
@@ -4602,46 +4669,46 @@
         <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>14.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4766,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
         <v>3</v>
@@ -4778,7 +4845,7 @@
         <v>18</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -4799,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4808,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>10</v>
@@ -4820,7 +4887,7 @@
         <v>26</v>
       </c>
       <c r="BB24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -4852,127 +4919,127 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.308</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J25" t="n">
-        <v>80.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.7</v>
+        <v>20.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.332</v>
+        <v>0.327</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P25" t="n">
         <v>18.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.788</v>
+        <v>0.784</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
         <v>30.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W25" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="AA25" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>20</v>
       </c>
-      <c r="AB25" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
         <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL25" t="n">
         <v>12</v>
       </c>
-      <c r="AL25" t="n">
-        <v>13</v>
-      </c>
       <c r="AM25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
         <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>22</v>
@@ -4981,19 +5048,19 @@
         <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>11</v>
@@ -5005,7 +5072,7 @@
         <v>16</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -5112,25 +5179,25 @@
         <v>3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
         <v>12</v>
       </c>
-      <c r="AF26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5145,22 +5212,22 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="n">
         <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>21</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>12</v>
@@ -5169,25 +5236,25 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
         <v>7</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-11.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5312,22 +5379,22 @@
         <v>28</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>7</v>
@@ -5351,16 +5418,16 @@
         <v>24</v>
       </c>
       <c r="AW27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY27" t="n">
         <v>14</v>
       </c>
-      <c r="AX27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -5398,103 +5465,103 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.643</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.471</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M28" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="N28" t="n">
         <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R28" t="n">
         <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="T28" t="n">
-        <v>41.4</v>
+        <v>41.8</v>
       </c>
       <c r="U28" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="W28" t="n">
         <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
         <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF28" t="n">
         <v>7</v>
       </c>
-      <c r="AF28" t="n">
-        <v>10</v>
-      </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5503,28 +5570,28 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,22 +5603,22 @@
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-5.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -5682,7 +5749,7 @@
         <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
@@ -5691,13 +5758,13 @@
         <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>25</v>
@@ -5706,7 +5773,7 @@
         <v>8</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5715,16 +5782,16 @@
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -5762,139 +5829,139 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.285</v>
+        <v>0.28</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>17.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.728</v>
+        <v>0.713</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S30" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="T30" t="n">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="V30" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="n">
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="AA30" t="n">
         <v>21.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.7</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF30" t="n">
         <v>7</v>
       </c>
-      <c r="AF30" t="n">
-        <v>6</v>
-      </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5903,19 +5970,19 @@
         <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>11</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-11.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6040,16 +6107,16 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
         <v>27</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
@@ -6079,13 +6146,13 @@
         <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-17-2011-12</t>
+          <t>2012-01-17</t>
         </is>
       </c>
     </row>
